--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98738C-9813-4BFA-BCB1-FDDA081472E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC6792-7CCA-46BD-B1AF-5B410C8BFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -319,7 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,35 +357,50 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -692,18 +713,17 @@
   <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F8" sqref="F8:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.44140625" customWidth="1"/>
+    <col min="6" max="15" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -936,28 +956,28 @@
       <c r="A7" s="7">
         <v>46035</v>
       </c>
-      <c r="B7" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C7" s="15">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -975,12 +995,24 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="F8" s="3">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1002,10 +1034,18 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="3">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1029,10 +1069,18 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1665,28 +1713,28 @@
       <c r="A34" s="7">
         <v>46043</v>
       </c>
-      <c r="B34" s="8">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="17">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C34" s="15">
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
@@ -2394,28 +2442,28 @@
       <c r="A61" s="5">
         <v>46055</v>
       </c>
-      <c r="B61" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C61" s="11">
+      <c r="B61" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C61" s="19">
         <v>61</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -2772,28 +2820,28 @@
       <c r="A75" s="9">
         <v>46057</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="21">
         <v>0.61111111111111116</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="22">
         <v>75</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
@@ -3366,28 +3414,28 @@
       <c r="A97" s="7">
         <v>46065</v>
       </c>
-      <c r="B97" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C97" s="12">
+      <c r="B97" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C97" s="15">
         <v>97</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
@@ -3825,28 +3873,28 @@
       <c r="A114" s="7">
         <v>46071</v>
       </c>
-      <c r="B114" s="8">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="C114" s="12">
+      <c r="B114" s="17">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C114" s="15">
         <v>114</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
     </row>
     <row r="115" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
@@ -4419,28 +4467,28 @@
       <c r="A136" s="5">
         <v>46079</v>
       </c>
-      <c r="B136" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C136" s="11">
+      <c r="B136" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C136" s="19">
         <v>136</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
@@ -5499,28 +5547,28 @@
       <c r="A176" s="5">
         <v>46093</v>
       </c>
-      <c r="B176" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C176" s="11">
+      <c r="B176" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C176" s="19">
         <v>176</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="20"/>
+      <c r="O176" s="20"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
@@ -5634,28 +5682,28 @@
       <c r="A181" s="5">
         <v>46104</v>
       </c>
-      <c r="B181" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C181" s="11">
+      <c r="B181" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C181" s="19">
         <v>181</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="7">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC6792-7CCA-46BD-B1AF-5B410C8BFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FF1FC-296B-4F6A-B192-010B1616A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="46">
   <si>
     <t>David Ferrer</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Adán Seguí</t>
-  </si>
-  <si>
-    <t>Javier Cabrero</t>
   </si>
   <si>
     <t>María Toral</t>
@@ -713,7 +710,7 @@
   <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:O10"/>
+      <selection activeCell="F11" sqref="F11:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="3">
         <v>11</v>
@@ -901,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
@@ -953,21 +950,11 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>46035</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C7" s="15">
-        <v>7</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -990,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -1029,10 +1016,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
         <v>11</v>
@@ -1064,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -1104,12 +1091,24 @@
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>11</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1131,16 +1130,36 @@
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1156,14 +1175,26 @@
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4">
+        <v>11</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1180,15 +1211,23 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="3">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1207,17 +1246,29 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="F15" s="2">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1291,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1315,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1342,10 +1393,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1369,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -1396,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -1423,10 +1474,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1450,10 +1501,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1531,7 +1582,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
@@ -1558,10 +1609,10 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1612,7 +1663,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
@@ -1639,10 +1690,10 @@
         <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1666,10 +1717,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1710,21 +1761,11 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>46043</v>
-      </c>
-      <c r="B34" s="17">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="C34" s="15">
-        <v>34</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -1774,10 +1815,10 @@
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1858,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1882,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1909,10 +1950,10 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1936,7 +1977,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>16</v>
@@ -1963,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>17</v>
@@ -1990,7 +2031,7 @@
         <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
@@ -2017,7 +2058,7 @@
         <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -2044,10 +2085,10 @@
         <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2125,7 +2166,7 @@
         <v>49</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>18</v>
@@ -2152,10 +2193,10 @@
         <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2233,7 +2274,7 @@
         <v>53</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>2</v>
@@ -2263,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2344,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2368,10 +2409,10 @@
         <v>58</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2395,10 +2436,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2439,21 +2480,11 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>46055</v>
-      </c>
-      <c r="B61" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C61" s="19">
-        <v>61</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -2503,10 +2534,10 @@
         <v>63</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2530,10 +2561,10 @@
         <v>64</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2557,7 +2588,7 @@
         <v>65</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>14</v>
@@ -2584,10 +2615,10 @@
         <v>66</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2611,10 +2642,10 @@
         <v>67</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -2641,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -2665,10 +2696,10 @@
         <v>69</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -2746,7 +2777,7 @@
         <v>72</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>18</v>
@@ -2773,10 +2804,10 @@
         <v>73</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -2817,21 +2848,11 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="9">
-        <v>46057</v>
-      </c>
-      <c r="B75" s="21">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="C75" s="22">
-        <v>75</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="A75" s="9"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -2911,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -2938,7 +2959,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -2962,10 +2983,10 @@
         <v>80</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3046,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -3070,10 +3091,10 @@
         <v>84</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3097,10 +3118,10 @@
         <v>85</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3124,7 +3145,7 @@
         <v>86</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
@@ -3151,7 +3172,7 @@
         <v>87</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>3</v>
@@ -3178,10 +3199,10 @@
         <v>88</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -3205,10 +3226,10 @@
         <v>89</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -3232,10 +3253,10 @@
         <v>90</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3313,10 +3334,10 @@
         <v>93</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -3343,7 +3364,7 @@
         <v>19</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3367,10 +3388,10 @@
         <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3411,21 +3432,11 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>46065</v>
-      </c>
-      <c r="B97" s="17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C97" s="15">
-        <v>97</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="A97" s="7"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
@@ -3475,10 +3486,10 @@
         <v>99</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -3502,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3583,7 +3594,7 @@
         <v>103</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>2</v>
@@ -3610,10 +3621,10 @@
         <v>104</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3667,7 +3678,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -3694,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -3718,10 +3729,10 @@
         <v>108</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -3745,7 +3756,7 @@
         <v>109</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -3772,7 +3783,7 @@
         <v>110</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -3799,7 +3810,7 @@
         <v>111</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>5</v>
@@ -3826,10 +3837,10 @@
         <v>112</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -3870,21 +3881,11 @@
       <c r="O113" s="4"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
-        <v>46071</v>
-      </c>
-      <c r="B114" s="17">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="C114" s="15">
-        <v>114</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A114" s="7"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
@@ -3910,7 +3911,7 @@
         <v>13</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -3934,10 +3935,10 @@
         <v>116</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -4015,7 +4016,7 @@
         <v>119</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>18</v>
@@ -4042,10 +4043,10 @@
         <v>120</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -4069,10 +4070,10 @@
         <v>121</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -4123,7 +4124,7 @@
         <v>123</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>15</v>
@@ -4150,7 +4151,7 @@
         <v>124</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>2</v>
@@ -4177,10 +4178,10 @@
         <v>125</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4204,10 +4205,10 @@
         <v>126</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -4312,10 +4313,10 @@
         <v>130</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4339,7 +4340,7 @@
         <v>131</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>8</v>
@@ -4366,7 +4367,7 @@
         <v>132</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>12</v>
@@ -4393,10 +4394,10 @@
         <v>133</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -4420,10 +4421,10 @@
         <v>134</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -4464,21 +4465,11 @@
       <c r="O135" s="2"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
-        <v>46079</v>
-      </c>
-      <c r="B136" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C136" s="19">
-        <v>136</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E136" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
@@ -4504,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -4528,7 +4519,7 @@
         <v>138</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>19</v>
@@ -4555,10 +4546,10 @@
         <v>139</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -4636,10 +4627,10 @@
         <v>142</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -4663,10 +4654,10 @@
         <v>143</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -4690,10 +4681,10 @@
         <v>144</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4744,7 +4735,7 @@
         <v>146</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>17</v>
@@ -4771,7 +4762,7 @@
         <v>147</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>18</v>
@@ -4798,10 +4789,10 @@
         <v>148</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -4906,10 +4897,10 @@
         <v>152</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -4933,7 +4924,7 @@
         <v>153</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>6</v>
@@ -4960,7 +4951,7 @@
         <v>154</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>20</v>
@@ -4987,7 +4978,7 @@
         <v>155</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>4</v>
@@ -5068,10 +5059,10 @@
         <v>158</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -5095,10 +5086,10 @@
         <v>159</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -5149,7 +5140,7 @@
         <v>161</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>3</v>
@@ -5176,10 +5167,10 @@
         <v>162</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -5203,10 +5194,10 @@
         <v>163</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -5230,10 +5221,10 @@
         <v>164</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -5338,7 +5329,7 @@
         <v>168</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>19</v>
@@ -5365,10 +5356,10 @@
         <v>169</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -5473,10 +5464,10 @@
         <v>173</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -5500,10 +5491,10 @@
         <v>174</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -5527,7 +5518,7 @@
         <v>175</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>0</v>
@@ -5544,21 +5535,11 @@
       <c r="O175" s="2"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A176" s="5">
-        <v>46093</v>
-      </c>
-      <c r="B176" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C176" s="19">
-        <v>176</v>
-      </c>
-      <c r="D176" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A176" s="5"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" s="20"/>
@@ -5581,7 +5562,7 @@
         <v>177</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>13</v>
@@ -5608,10 +5589,10 @@
         <v>178</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -5635,10 +5616,10 @@
         <v>179</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -5679,21 +5660,11 @@
       <c r="O180" s="2"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A181" s="5">
-        <v>46104</v>
-      </c>
-      <c r="B181" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C181" s="19">
-        <v>181</v>
-      </c>
-      <c r="D181" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A181" s="5"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
       <c r="H181" s="20"/>
@@ -5716,7 +5687,7 @@
         <v>182</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>13</v>
@@ -5743,10 +5714,10 @@
         <v>183</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
@@ -5797,7 +5768,7 @@
         <v>185</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>12</v>
@@ -5824,10 +5795,10 @@
         <v>186</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -5851,10 +5822,10 @@
         <v>187</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5935,7 +5906,7 @@
         <v>5</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -5959,7 +5930,7 @@
         <v>191</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>19</v>
@@ -6067,10 +6038,10 @@
         <v>195</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -6094,7 +6065,7 @@
         <v>196</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>1</v>
@@ -6121,7 +6092,7 @@
         <v>197</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>15</v>
@@ -6148,7 +6119,7 @@
         <v>198</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>2</v>
@@ -6175,10 +6146,10 @@
         <v>199</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686C3E6F-C410-4E96-83A0-A1DA7D8DD63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D864DB1-CD23-43ED-B954-D4F21C854210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="F1" sqref="F1:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,16 +1302,36 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="13"/>
+      <c r="F15" s="1">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1">
+        <v>15</v>
+      </c>
+      <c r="O15" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -1481,12 +1501,24 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1">
+        <v>11</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1508,12 +1540,24 @@
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="F21" s="3">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1535,12 +1579,24 @@
       <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>11</v>
+      </c>
+      <c r="J22" s="4">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4">
+        <v>14</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1562,10 +1618,18 @@
       <c r="E23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="F23" s="3">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1589,16 +1653,36 @@
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="16"/>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>11</v>
+      </c>
+      <c r="L24" s="2">
+        <v>11</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8</v>
+      </c>
+      <c r="N24" s="2">
+        <v>11</v>
+      </c>
+      <c r="O24" s="16">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D864DB1-CD23-43ED-B954-D4F21C854210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112DE10-764F-4485-BA03-060C122B5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O24"/>
+      <selection activeCell="F25" sqref="F25:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,12 +1727,24 @@
       <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="F26" s="3">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11</v>
+      </c>
+      <c r="K26" s="3">
+        <v>8</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1754,10 +1766,18 @@
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="F27" s="4">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4">
+        <v>9</v>
+      </c>
+      <c r="H27" s="4">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4">
+        <v>6</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1781,12 +1801,24 @@
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3">
+        <v>9</v>
+      </c>
+      <c r="I28" s="3">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3">
+        <v>8</v>
+      </c>
+      <c r="K28" s="3">
+        <v>11</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1808,14 +1840,30 @@
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
+        <v>7</v>
+      </c>
+      <c r="K29" s="2">
+        <v>11</v>
+      </c>
+      <c r="L29" s="2">
+        <v>5</v>
+      </c>
+      <c r="M29" s="2">
+        <v>11</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="16"/>
     </row>
@@ -2132,14 +2180,30 @@
       <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="F41" s="4">
+        <v>12</v>
+      </c>
+      <c r="G41" s="4">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4">
+        <v>11</v>
+      </c>
+      <c r="I41" s="4">
+        <v>7</v>
+      </c>
+      <c r="J41" s="4">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4">
+        <v>6</v>
+      </c>
+      <c r="L41" s="4">
+        <v>11</v>
+      </c>
+      <c r="M41" s="4">
+        <v>5</v>
+      </c>
       <c r="N41" s="4"/>
       <c r="O41" s="15"/>
     </row>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112DE10-764F-4485-BA03-060C122B5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2959637E-A317-41BB-BC70-D8530EB7376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:O43"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,14 +967,30 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="F6" s="1">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="13"/>
     </row>
@@ -1883,16 +1899,36 @@
       <c r="E30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="13"/>
+      <c r="F30" s="1">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>11</v>
+      </c>
+      <c r="J30" s="1">
+        <v>11</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9</v>
+      </c>
+      <c r="L30" s="1">
+        <v>11</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>11</v>
+      </c>
+      <c r="O30" s="13">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -1910,10 +1946,18 @@
       <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
+        <v>11</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>11</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1937,16 +1981,36 @@
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="15"/>
+      <c r="F32" s="4">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4">
+        <v>11</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>11</v>
+      </c>
+      <c r="J32" s="4">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>11</v>
+      </c>
+      <c r="M32" s="4">
+        <v>8</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2</v>
+      </c>
+      <c r="O32" s="15">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2959637E-A317-41BB-BC70-D8530EB7376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B31F9-ED8C-47F1-8593-9A43627784AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,10 +980,10 @@
         <v>11</v>
       </c>
       <c r="J6" s="1">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
         <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>11</v>
       </c>
       <c r="L6" s="1">
         <v>12</v>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B31F9-ED8C-47F1-8593-9A43627784AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C7591D-22E0-43C3-A653-77C42C3D52E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,12 +2028,24 @@
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>11</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2055,10 +2067,18 @@
       <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>11</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2082,14 +2102,30 @@
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>11</v>
+      </c>
+      <c r="J35" s="3">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7</v>
+      </c>
+      <c r="M35" s="3">
+        <v>11</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="14"/>
     </row>
@@ -2109,12 +2145,24 @@
       <c r="E36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>12</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>11</v>
+      </c>
+      <c r="J36" s="4">
+        <v>7</v>
+      </c>
+      <c r="K36" s="4">
+        <v>11</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -2136,12 +2184,24 @@
       <c r="E37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3">
+        <v>11</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6</v>
+      </c>
+      <c r="K37" s="3">
+        <v>11</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2163,10 +2223,18 @@
       <c r="E38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="F38" s="2">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>11</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C7591D-22E0-43C3-A653-77C42C3D52E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F769136E-BB78-445D-AD34-C352159F4D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O43"/>
     </sheetView>
   </sheetViews>
@@ -2258,10 +2258,18 @@
       <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>11</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2285,12 +2293,24 @@
       <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3">
+        <v>11</v>
+      </c>
+      <c r="H40" s="3">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3">
+        <v>11</v>
+      </c>
+      <c r="J40" s="3">
+        <v>8</v>
+      </c>
+      <c r="K40" s="3">
+        <v>11</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2355,14 +2375,30 @@
       <c r="E42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3">
+        <v>11</v>
+      </c>
+      <c r="J42" s="3">
+        <v>13</v>
+      </c>
+      <c r="K42" s="3">
+        <v>11</v>
+      </c>
+      <c r="L42" s="3">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
+        <v>11</v>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="14"/>
     </row>
@@ -2382,10 +2418,18 @@
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="F43" s="2">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2">
+        <v>6</v>
+      </c>
+      <c r="I43" s="2">
+        <v>11</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F769136E-BB78-445D-AD34-C352159F4D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CD2C5-6C5B-47E6-864D-EB73D4A92BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,10 +2453,18 @@
       <c r="E44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="F44" s="1">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>11</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2480,14 +2488,30 @@
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="F45" s="3">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3">
+        <v>11</v>
+      </c>
+      <c r="H45" s="3">
+        <v>11</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3">
+        <v>6</v>
+      </c>
       <c r="N45" s="3"/>
       <c r="O45" s="14"/>
     </row>
@@ -2534,14 +2558,30 @@
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="F47" s="3">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3">
+        <v>9</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="14"/>
     </row>
@@ -2561,12 +2601,24 @@
       <c r="E48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="F48" s="2">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2">
+        <v>4</v>
+      </c>
+      <c r="H48" s="2">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2">
+        <v>11</v>
+      </c>
+      <c r="K48" s="2">
+        <v>4</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CD2C5-6C5B-47E6-864D-EB73D4A92BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15B557-FFBC-464A-8BA4-71AFAF88F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O48"/>
+      <selection activeCell="F49" sqref="F49:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,16 +2640,36 @@
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="13"/>
+      <c r="F49" s="1">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>11</v>
+      </c>
+      <c r="J49" s="1">
+        <v>11</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9</v>
+      </c>
+      <c r="L49" s="1">
+        <v>8</v>
+      </c>
+      <c r="M49" s="1">
+        <v>11</v>
+      </c>
+      <c r="N49" s="1">
+        <v>11</v>
+      </c>
+      <c r="O49" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
@@ -2694,12 +2714,24 @@
       <c r="E51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="F51" s="4">
+        <v>12</v>
+      </c>
+      <c r="G51" s="4">
+        <v>14</v>
+      </c>
+      <c r="H51" s="4">
+        <v>9</v>
+      </c>
+      <c r="I51" s="4">
+        <v>11</v>
+      </c>
+      <c r="J51" s="4">
+        <v>4</v>
+      </c>
+      <c r="K51" s="4">
+        <v>11</v>
+      </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -2721,12 +2753,24 @@
       <c r="E52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="F52" s="3">
+        <v>11</v>
+      </c>
+      <c r="G52" s="3">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3">
+        <v>11</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14</v>
+      </c>
+      <c r="K52" s="3">
+        <v>12</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -2748,16 +2792,36 @@
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="16"/>
+      <c r="F53" s="2">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2">
+        <v>9</v>
+      </c>
+      <c r="H53" s="2">
+        <v>11</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2">
+        <v>9</v>
+      </c>
+      <c r="K53" s="2">
+        <v>11</v>
+      </c>
+      <c r="L53" s="2">
+        <v>5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>11</v>
+      </c>
+      <c r="N53" s="2">
+        <v>11</v>
+      </c>
+      <c r="O53" s="16">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="5">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15B557-FFBC-464A-8BA4-71AFAF88F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B3FD6F-0400-4185-BF1C-EF67B6324781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49:O53"/>
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2866,12 +2866,24 @@
       <c r="E55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3">
+        <v>11</v>
+      </c>
+      <c r="H55" s="3">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3">
+        <v>11</v>
+      </c>
+      <c r="J55" s="3">
+        <v>10</v>
+      </c>
+      <c r="K55" s="3">
+        <v>12</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -2893,12 +2905,24 @@
       <c r="E56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="F56" s="4">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4">
+        <v>6</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3</v>
+      </c>
+      <c r="I56" s="4">
+        <v>11</v>
+      </c>
+      <c r="J56" s="4">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4">
+        <v>7</v>
+      </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -2920,10 +2944,18 @@
       <c r="E57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="F57" s="3">
+        <v>6</v>
+      </c>
+      <c r="G57" s="3">
+        <v>11</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2947,16 +2979,36 @@
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="16"/>
+      <c r="F58" s="2">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2">
+        <v>9</v>
+      </c>
+      <c r="H58" s="2">
+        <v>11</v>
+      </c>
+      <c r="I58" s="2">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2">
+        <v>11</v>
+      </c>
+      <c r="K58" s="2">
+        <v>13</v>
+      </c>
+      <c r="L58" s="2">
+        <v>7</v>
+      </c>
+      <c r="M58" s="2">
+        <v>11</v>
+      </c>
+      <c r="N58" s="2">
+        <v>4</v>
+      </c>
+      <c r="O58" s="16">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="7">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B3FD6F-0400-4185-BF1C-EF67B6324781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E77976A-3C46-42E2-A460-8EE2DE9B3294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,12 +2839,24 @@
       <c r="E54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1">
+        <v>9</v>
+      </c>
+      <c r="I54" s="1">
+        <v>11</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>11</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3026,14 +3038,30 @@
       <c r="E59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="F59" s="3">
+        <v>11</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
+        <v>12</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9</v>
+      </c>
+      <c r="K59" s="3">
+        <v>11</v>
+      </c>
+      <c r="L59" s="3">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>11</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="O59" s="14"/>
     </row>
@@ -3080,10 +3108,18 @@
       <c r="E61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="F61" s="3">
+        <v>6</v>
+      </c>
+      <c r="G61" s="3">
+        <v>11</v>
+      </c>
+      <c r="H61" s="3">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3107,16 +3143,36 @@
       <c r="E62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="16"/>
+      <c r="F62" s="2">
+        <v>13</v>
+      </c>
+      <c r="G62" s="2">
+        <v>15</v>
+      </c>
+      <c r="H62" s="2">
+        <v>11</v>
+      </c>
+      <c r="I62" s="2">
+        <v>9</v>
+      </c>
+      <c r="J62" s="2">
+        <v>7</v>
+      </c>
+      <c r="K62" s="2">
+        <v>11</v>
+      </c>
+      <c r="L62" s="2">
+        <v>11</v>
+      </c>
+      <c r="M62" s="2">
+        <v>9</v>
+      </c>
+      <c r="N62" s="2">
+        <v>12</v>
+      </c>
+      <c r="O62" s="16">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E77976A-3C46-42E2-A460-8EE2DE9B3294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C11659-9758-4424-8A81-0167FEB2419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O62"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3190,12 +3190,24 @@
       <c r="E63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="F63" s="1">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1">
+        <v>7</v>
+      </c>
+      <c r="J63" s="1">
+        <v>11</v>
+      </c>
+      <c r="K63" s="1">
+        <v>6</v>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3217,12 +3229,24 @@
       <c r="E64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="F64" s="3">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3">
+        <v>11</v>
+      </c>
+      <c r="H64" s="3">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3">
+        <v>11</v>
+      </c>
+      <c r="J64" s="3">
+        <v>6</v>
+      </c>
+      <c r="K64" s="3">
+        <v>11</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -3244,12 +3268,24 @@
       <c r="E65" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="F65" s="4">
+        <v>7</v>
+      </c>
+      <c r="G65" s="4">
+        <v>11</v>
+      </c>
+      <c r="H65" s="4">
+        <v>12</v>
+      </c>
+      <c r="I65" s="4">
+        <v>10</v>
+      </c>
+      <c r="J65" s="4">
+        <v>12</v>
+      </c>
+      <c r="K65" s="4">
+        <v>10</v>
+      </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -3271,10 +3307,18 @@
       <c r="E66" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
+        <v>11</v>
+      </c>
+      <c r="H66" s="3">
+        <v>7</v>
+      </c>
+      <c r="I66" s="3">
+        <v>11</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3298,16 +3342,36 @@
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="16"/>
+      <c r="F67" s="2">
+        <v>9</v>
+      </c>
+      <c r="G67" s="2">
+        <v>11</v>
+      </c>
+      <c r="H67" s="2">
+        <v>12</v>
+      </c>
+      <c r="I67" s="2">
+        <v>10</v>
+      </c>
+      <c r="J67" s="2">
+        <v>8</v>
+      </c>
+      <c r="K67" s="2">
+        <v>11</v>
+      </c>
+      <c r="L67" s="2">
+        <v>11</v>
+      </c>
+      <c r="M67" s="2">
+        <v>8</v>
+      </c>
+      <c r="N67" s="2">
+        <v>11</v>
+      </c>
+      <c r="O67" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="5">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C11659-9758-4424-8A81-0167FEB2419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E572F-2228-4444-898C-23E4DFE964A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2687,14 +2687,30 @@
       <c r="E50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="F50" s="3">
+        <v>11</v>
+      </c>
+      <c r="G50" s="3">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3">
+        <v>11</v>
+      </c>
+      <c r="I50" s="3">
+        <v>6</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3">
+        <v>11</v>
+      </c>
+      <c r="L50" s="3">
+        <v>12</v>
+      </c>
+      <c r="M50" s="3">
+        <v>10</v>
+      </c>
       <c r="N50" s="3"/>
       <c r="O50" s="14"/>
     </row>
@@ -3389,16 +3405,36 @@
       <c r="E68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="13"/>
+      <c r="F68" s="1">
+        <v>16</v>
+      </c>
+      <c r="G68" s="1">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1">
+        <v>11</v>
+      </c>
+      <c r="J68" s="1">
+        <v>11</v>
+      </c>
+      <c r="K68" s="1">
+        <v>5</v>
+      </c>
+      <c r="L68" s="1">
+        <v>5</v>
+      </c>
+      <c r="M68" s="1">
+        <v>11</v>
+      </c>
+      <c r="N68" s="1">
+        <v>11</v>
+      </c>
+      <c r="O68" s="13">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
@@ -3416,12 +3452,24 @@
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="F69" s="3">
+        <v>7</v>
+      </c>
+      <c r="G69" s="3">
+        <v>11</v>
+      </c>
+      <c r="H69" s="3">
+        <v>9</v>
+      </c>
+      <c r="I69" s="3">
+        <v>11</v>
+      </c>
+      <c r="J69" s="3">
+        <v>6</v>
+      </c>
+      <c r="K69" s="3">
+        <v>11</v>
+      </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -3443,10 +3491,18 @@
       <c r="E70" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="F70" s="4">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4">
+        <v>3</v>
+      </c>
+      <c r="H70" s="4">
+        <v>11</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E572F-2228-4444-898C-23E4DFE964A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA7DE2A-3C2E-40EF-91CC-6812E9313E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,16 +2531,36 @@
       <c r="E46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="15"/>
+      <c r="F46" s="4">
+        <v>7</v>
+      </c>
+      <c r="G46" s="4">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4">
+        <v>9</v>
+      </c>
+      <c r="I46" s="4">
+        <v>11</v>
+      </c>
+      <c r="J46" s="4">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4">
+        <v>4</v>
+      </c>
+      <c r="L46" s="4">
+        <v>11</v>
+      </c>
+      <c r="M46" s="4">
+        <v>8</v>
+      </c>
+      <c r="N46" s="4">
+        <v>6</v>
+      </c>
+      <c r="O46" s="15">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
@@ -3097,10 +3117,18 @@
       <c r="E60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="F60" s="4">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4">
+        <v>15</v>
+      </c>
+      <c r="H60" s="4">
+        <v>11</v>
+      </c>
+      <c r="I60" s="4">
+        <v>8</v>
+      </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3580,16 +3608,36 @@
       <c r="E73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="14"/>
+      <c r="F73" s="3">
+        <v>9</v>
+      </c>
+      <c r="G73" s="3">
+        <v>11</v>
+      </c>
+      <c r="H73" s="3">
+        <v>11</v>
+      </c>
+      <c r="I73" s="3">
+        <v>4</v>
+      </c>
+      <c r="J73" s="3">
+        <v>11</v>
+      </c>
+      <c r="K73" s="3">
+        <v>9</v>
+      </c>
+      <c r="L73" s="3">
+        <v>3</v>
+      </c>
+      <c r="M73" s="3">
+        <v>11</v>
+      </c>
+      <c r="N73" s="3">
+        <v>11</v>
+      </c>
+      <c r="O73" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
@@ -3607,16 +3655,36 @@
       <c r="E74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="15"/>
+      <c r="F74" s="4">
+        <v>12</v>
+      </c>
+      <c r="G74" s="4">
+        <v>6</v>
+      </c>
+      <c r="H74" s="4">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4">
+        <v>11</v>
+      </c>
+      <c r="J74" s="4">
+        <v>13</v>
+      </c>
+      <c r="K74" s="4">
+        <v>11</v>
+      </c>
+      <c r="L74" s="4">
+        <v>7</v>
+      </c>
+      <c r="M74" s="4">
+        <v>11</v>
+      </c>
+      <c r="N74" s="4">
+        <v>11</v>
+      </c>
+      <c r="O74" s="15">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
@@ -3634,12 +3702,24 @@
       <c r="E75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="F75" s="3">
+        <v>6</v>
+      </c>
+      <c r="G75" s="3">
+        <v>11</v>
+      </c>
+      <c r="H75" s="3">
+        <v>6</v>
+      </c>
+      <c r="I75" s="3">
+        <v>11</v>
+      </c>
+      <c r="J75" s="3">
+        <v>6</v>
+      </c>
+      <c r="K75" s="3">
+        <v>11</v>
+      </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -3661,10 +3741,18 @@
       <c r="E76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="F76" s="2">
+        <v>7</v>
+      </c>
+      <c r="G76" s="2">
+        <v>11</v>
+      </c>
+      <c r="H76" s="2">
+        <v>6</v>
+      </c>
+      <c r="I76" s="2">
+        <v>11</v>
+      </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA7DE2A-3C2E-40EF-91CC-6812E9313E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750A965-7603-4177-B007-8D59E33ABA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,12 +1716,24 @@
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1">
+        <v>11</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3554,16 +3566,36 @@
       <c r="E71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="14"/>
+      <c r="F71" s="3">
+        <v>11</v>
+      </c>
+      <c r="G71" s="3">
+        <v>7</v>
+      </c>
+      <c r="H71" s="3">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3">
+        <v>12</v>
+      </c>
+      <c r="J71" s="3">
+        <v>10</v>
+      </c>
+      <c r="K71" s="3">
+        <v>12</v>
+      </c>
+      <c r="L71" s="3">
+        <v>12</v>
+      </c>
+      <c r="M71" s="3">
+        <v>10</v>
+      </c>
+      <c r="N71" s="3">
+        <v>11</v>
+      </c>
+      <c r="O71" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -3633,10 +3665,10 @@
         <v>11</v>
       </c>
       <c r="N73" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O73" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -3776,14 +3808,30 @@
       <c r="E77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="F77" s="1">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1">
+        <v>13</v>
+      </c>
+      <c r="H77" s="1">
+        <v>11</v>
+      </c>
+      <c r="I77" s="1">
+        <v>6</v>
+      </c>
+      <c r="J77" s="1">
+        <v>11</v>
+      </c>
+      <c r="K77" s="1">
+        <v>9</v>
+      </c>
+      <c r="L77" s="1">
+        <v>11</v>
+      </c>
+      <c r="M77" s="1">
+        <v>4</v>
+      </c>
       <c r="N77" s="1"/>
       <c r="O77" s="13"/>
     </row>
@@ -3803,12 +3851,24 @@
       <c r="E78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="F78" s="3">
+        <v>7</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11</v>
+      </c>
+      <c r="H78" s="3">
+        <v>11</v>
+      </c>
+      <c r="I78" s="3">
+        <v>13</v>
+      </c>
+      <c r="J78" s="3">
+        <v>6</v>
+      </c>
+      <c r="K78" s="3">
+        <v>11</v>
+      </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -3830,12 +3890,24 @@
       <c r="E79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4">
+        <v>11</v>
+      </c>
+      <c r="H79" s="4">
+        <v>6</v>
+      </c>
+      <c r="I79" s="4">
+        <v>11</v>
+      </c>
+      <c r="J79" s="4">
+        <v>4</v>
+      </c>
+      <c r="K79" s="4">
+        <v>11</v>
+      </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750A965-7603-4177-B007-8D59E33ABA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056E94F-A5F6-4AB5-B668-6FE01F386E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O81"/>
+      <selection activeCell="F1" sqref="F1:O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3983,12 +3983,24 @@
       <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="F82" s="1">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1">
+        <v>11</v>
+      </c>
+      <c r="H82" s="1">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1">
+        <v>11</v>
+      </c>
+      <c r="J82" s="1">
+        <v>9</v>
+      </c>
+      <c r="K82" s="1">
+        <v>11</v>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -4010,14 +4022,30 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
+      <c r="F83" s="3">
+        <v>6</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
+        <v>11</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11</v>
+      </c>
+      <c r="K83" s="3">
+        <v>6</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
+        <v>11</v>
+      </c>
       <c r="N83" s="3"/>
       <c r="O83" s="14"/>
     </row>
@@ -4037,12 +4065,24 @@
       <c r="E84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>11</v>
+      </c>
+      <c r="H84" s="4">
+        <v>3</v>
+      </c>
+      <c r="I84" s="4">
+        <v>11</v>
+      </c>
+      <c r="J84" s="4">
+        <v>6</v>
+      </c>
+      <c r="K84" s="4">
+        <v>11</v>
+      </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -4064,12 +4104,24 @@
       <c r="E85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="F85" s="3">
+        <v>8</v>
+      </c>
+      <c r="G85" s="3">
+        <v>11</v>
+      </c>
+      <c r="H85" s="3">
+        <v>11</v>
+      </c>
+      <c r="I85" s="3">
+        <v>8</v>
+      </c>
+      <c r="J85" s="3">
+        <v>11</v>
+      </c>
+      <c r="K85" s="3">
+        <v>8</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056E94F-A5F6-4AB5-B668-6FE01F386E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9A98CF-8163-4231-8E51-3819E4B0B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3929,10 +3929,18 @@
       <c r="E80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+      <c r="F80" s="3">
+        <v>9</v>
+      </c>
+      <c r="G80" s="3">
+        <v>11</v>
+      </c>
+      <c r="H80" s="3">
+        <v>8</v>
+      </c>
+      <c r="I80" s="3">
+        <v>11</v>
+      </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -3956,10 +3964,18 @@
       <c r="E81" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="F81" s="2">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2">
+        <v>7</v>
+      </c>
+      <c r="H81" s="2">
+        <v>11</v>
+      </c>
+      <c r="I81" s="2">
+        <v>8</v>
+      </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4224,12 +4240,24 @@
       <c r="E89" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="F89" s="4">
+        <v>4</v>
+      </c>
+      <c r="G89" s="4">
+        <v>11</v>
+      </c>
+      <c r="H89" s="4">
+        <v>3</v>
+      </c>
+      <c r="I89" s="4">
+        <v>11</v>
+      </c>
+      <c r="J89" s="4">
+        <v>4</v>
+      </c>
+      <c r="K89" s="4">
+        <v>11</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -4251,10 +4279,18 @@
       <c r="E90" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="F90" s="3">
+        <v>6</v>
+      </c>
+      <c r="G90" s="3">
+        <v>11</v>
+      </c>
+      <c r="H90" s="3">
+        <v>4</v>
+      </c>
+      <c r="I90" s="3">
+        <v>11</v>
+      </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -4278,10 +4314,18 @@
       <c r="E91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="F91" s="2">
+        <v>11</v>
+      </c>
+      <c r="G91" s="2">
+        <v>5</v>
+      </c>
+      <c r="H91" s="2">
+        <v>11</v>
+      </c>
+      <c r="I91" s="2">
+        <v>8</v>
+      </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9A98CF-8163-4231-8E51-3819E4B0B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E237F-9F39-4CAD-A1D7-4F5A8F03D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O91"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4186,12 +4186,24 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="F87" s="1">
+        <v>7</v>
+      </c>
+      <c r="G87" s="1">
+        <v>11</v>
+      </c>
+      <c r="H87" s="1">
+        <v>13</v>
+      </c>
+      <c r="I87" s="1">
+        <v>15</v>
+      </c>
+      <c r="J87" s="1">
+        <v>7</v>
+      </c>
+      <c r="K87" s="1">
+        <v>11</v>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -4213,14 +4225,30 @@
       <c r="E88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
+      <c r="F88" s="3">
+        <v>11</v>
+      </c>
+      <c r="G88" s="3">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3">
+        <v>11</v>
+      </c>
+      <c r="I88" s="3">
+        <v>7</v>
+      </c>
+      <c r="J88" s="3">
+        <v>11</v>
+      </c>
+      <c r="K88" s="3">
+        <v>6</v>
+      </c>
+      <c r="L88" s="3">
+        <v>11</v>
+      </c>
+      <c r="M88" s="3">
+        <v>5</v>
+      </c>
       <c r="N88" s="3"/>
       <c r="O88" s="14"/>
     </row>
@@ -4349,14 +4377,30 @@
       <c r="E92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
+      <c r="F92" s="1">
+        <v>6</v>
+      </c>
+      <c r="G92" s="1">
+        <v>11</v>
+      </c>
+      <c r="H92" s="1">
+        <v>5</v>
+      </c>
+      <c r="I92" s="1">
+        <v>11</v>
+      </c>
+      <c r="J92" s="1">
+        <v>11</v>
+      </c>
+      <c r="K92" s="1">
+        <v>8</v>
+      </c>
+      <c r="L92" s="1">
+        <v>3</v>
+      </c>
+      <c r="M92" s="1">
+        <v>11</v>
+      </c>
       <c r="N92" s="1"/>
       <c r="O92" s="13"/>
     </row>
@@ -4430,10 +4474,18 @@
       <c r="E95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+      <c r="F95" s="2">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2">
+        <v>3</v>
+      </c>
+      <c r="H95" s="2">
+        <v>11</v>
+      </c>
+      <c r="I95" s="2">
+        <v>3</v>
+      </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -4889,12 +4941,24 @@
       <c r="E112" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
+      <c r="F112" s="4">
+        <v>8</v>
+      </c>
+      <c r="G112" s="4">
+        <v>11</v>
+      </c>
+      <c r="H112" s="4">
+        <v>9</v>
+      </c>
+      <c r="I112" s="4">
+        <v>11</v>
+      </c>
+      <c r="J112" s="4">
+        <v>3</v>
+      </c>
+      <c r="K112" s="4">
+        <v>11</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -5915,14 +5979,30 @@
       <c r="E150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
+      <c r="F150" s="3">
+        <v>11</v>
+      </c>
+      <c r="G150" s="3">
+        <v>5</v>
+      </c>
+      <c r="H150" s="3">
+        <v>9</v>
+      </c>
+      <c r="I150" s="3">
+        <v>11</v>
+      </c>
+      <c r="J150" s="3">
+        <v>9</v>
+      </c>
+      <c r="K150" s="3">
+        <v>11</v>
+      </c>
+      <c r="L150" s="3">
+        <v>6</v>
+      </c>
+      <c r="M150" s="3">
+        <v>11</v>
+      </c>
       <c r="N150" s="3"/>
       <c r="O150" s="14"/>
     </row>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB754C7-F7CE-45B9-9AFD-323EDF32DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC677473-2F2D-455A-AD7F-3C587FA429B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,9 +401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P190" sqref="P190"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4059,16 +4056,28 @@
       <c r="E84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
+      <c r="F84" s="4">
+        <v>7</v>
+      </c>
+      <c r="G84" s="4">
+        <v>11</v>
+      </c>
+      <c r="H84" s="4">
+        <v>3</v>
+      </c>
+      <c r="I84" s="4">
+        <v>11</v>
+      </c>
+      <c r="J84" s="4">
+        <v>5</v>
+      </c>
+      <c r="K84" s="4">
+        <v>11</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
@@ -4370,16 +4379,32 @@
       <c r="E93" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
+      <c r="F93" s="3">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3">
+        <v>10</v>
+      </c>
+      <c r="H93" s="3">
+        <v>5</v>
+      </c>
+      <c r="I93" s="3">
+        <v>11</v>
+      </c>
+      <c r="J93" s="3">
+        <v>9</v>
+      </c>
+      <c r="K93" s="3">
+        <v>11</v>
+      </c>
+      <c r="L93" s="3">
+        <v>7</v>
+      </c>
+      <c r="M93" s="3">
+        <v>11</v>
+      </c>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
@@ -4510,16 +4535,36 @@
       <c r="E97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
+      <c r="F97" s="1">
+        <v>11</v>
+      </c>
+      <c r="G97" s="1">
+        <v>7</v>
+      </c>
+      <c r="H97" s="1">
+        <v>11</v>
+      </c>
+      <c r="I97" s="1">
+        <v>8</v>
+      </c>
+      <c r="J97" s="1">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1">
+        <v>11</v>
+      </c>
+      <c r="L97" s="1">
+        <v>8</v>
+      </c>
+      <c r="M97" s="1">
+        <v>11</v>
+      </c>
+      <c r="N97" s="1">
+        <v>11</v>
+      </c>
+      <c r="O97" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
@@ -4537,10 +4582,18 @@
       <c r="E98" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="F98" s="3">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3">
+        <v>11</v>
+      </c>
+      <c r="I98" s="3">
+        <v>8</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -4564,16 +4617,36 @@
       <c r="E99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
+      <c r="F99" s="4">
+        <v>11</v>
+      </c>
+      <c r="G99" s="4">
+        <v>8</v>
+      </c>
+      <c r="H99" s="4">
+        <v>8</v>
+      </c>
+      <c r="I99" s="4">
+        <v>11</v>
+      </c>
+      <c r="J99" s="4">
+        <v>7</v>
+      </c>
+      <c r="K99" s="4">
+        <v>11</v>
+      </c>
+      <c r="L99" s="4">
+        <v>11</v>
+      </c>
+      <c r="M99" s="4">
+        <v>7</v>
+      </c>
+      <c r="N99" s="4">
+        <v>7</v>
+      </c>
+      <c r="O99" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="100" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
@@ -4591,12 +4664,24 @@
       <c r="E100" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="F100" s="2">
+        <v>2</v>
+      </c>
+      <c r="G100" s="2">
+        <v>11</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>11</v>
+      </c>
+      <c r="J100" s="2">
+        <v>8</v>
+      </c>
+      <c r="K100" s="2">
+        <v>11</v>
+      </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC677473-2F2D-455A-AD7F-3C587FA429B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B9571-7143-4034-8822-7CFCB2B96881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O174"/>
     </sheetView>
   </sheetViews>
@@ -4703,12 +4703,24 @@
       <c r="E101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="F101" s="1">
+        <v>11</v>
+      </c>
+      <c r="G101" s="1">
+        <v>9</v>
+      </c>
+      <c r="H101" s="1">
+        <v>10</v>
+      </c>
+      <c r="I101" s="1">
+        <v>12</v>
+      </c>
+      <c r="J101" s="1">
+        <v>11</v>
+      </c>
+      <c r="K101" s="1">
+        <v>5</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -4730,12 +4742,24 @@
       <c r="E102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="F102" s="3">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>11</v>
+      </c>
+      <c r="H102" s="3">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3">
+        <v>11</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>11</v>
+      </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
@@ -4796,12 +4820,24 @@
       <c r="E104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="F104" s="3">
+        <v>11</v>
+      </c>
+      <c r="G104" s="3">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3">
+        <v>12</v>
+      </c>
+      <c r="I104" s="3">
+        <v>10</v>
+      </c>
+      <c r="J104" s="3">
+        <v>11</v>
+      </c>
+      <c r="K104" s="3">
+        <v>5</v>
+      </c>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
@@ -4823,10 +4859,18 @@
       <c r="E105" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="F105" s="2">
+        <v>7</v>
+      </c>
+      <c r="G105" s="2">
+        <v>11</v>
+      </c>
+      <c r="H105" s="2">
+        <v>3</v>
+      </c>
+      <c r="I105" s="2">
+        <v>11</v>
+      </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B9571-7143-4034-8822-7CFCB2B96881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB89244-C399-457A-8641-5953E63359AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,9 +389,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -721,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O174"/>
     </sheetView>
   </sheetViews>
@@ -4247,16 +4244,32 @@
       <c r="E89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
+      <c r="F89" s="4">
+        <v>11</v>
+      </c>
+      <c r="G89" s="4">
+        <v>8</v>
+      </c>
+      <c r="H89" s="4">
+        <v>9</v>
+      </c>
+      <c r="I89" s="4">
+        <v>11</v>
+      </c>
+      <c r="J89" s="4">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4">
+        <v>7</v>
+      </c>
+      <c r="L89" s="4">
+        <v>11</v>
+      </c>
+      <c r="M89" s="4">
+        <v>9</v>
+      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
@@ -4736,7 +4749,7 @@
       <c r="C102" s="13">
         <v>117</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4921,14 +4934,30 @@
       <c r="E107" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
+      <c r="F107" s="3">
+        <v>9</v>
+      </c>
+      <c r="G107" s="3">
+        <v>11</v>
+      </c>
+      <c r="H107" s="3">
+        <v>9</v>
+      </c>
+      <c r="I107" s="3">
+        <v>11</v>
+      </c>
+      <c r="J107" s="3">
+        <v>13</v>
+      </c>
+      <c r="K107" s="3">
+        <v>11</v>
+      </c>
+      <c r="L107" s="3">
+        <v>10</v>
+      </c>
+      <c r="M107" s="3">
+        <v>12</v>
+      </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
     </row>
@@ -4948,10 +4977,18 @@
       <c r="E108" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
+      <c r="F108" s="2">
+        <v>8</v>
+      </c>
+      <c r="G108" s="2">
+        <v>11</v>
+      </c>
+      <c r="H108" s="2">
+        <v>9</v>
+      </c>
+      <c r="I108" s="2">
+        <v>11</v>
+      </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -5212,7 +5249,7 @@
       <c r="C118" s="14">
         <v>135</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -5698,7 +5735,7 @@
       <c r="C136" s="15">
         <v>156</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -6662,7 +6699,7 @@
       <c r="D171" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F171" s="1"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB89244-C399-457A-8641-5953E63359AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AF0FB-4603-4E6D-BB04-86DC82F046E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +398,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O174"/>
     </sheetView>
   </sheetViews>
@@ -5012,10 +5018,18 @@
       <c r="E109" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="F109" s="1">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>11</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2</v>
+      </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5039,14 +5053,30 @@
       <c r="E110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>11</v>
+      </c>
+      <c r="H110" s="3">
+        <v>11</v>
+      </c>
+      <c r="I110" s="3">
+        <v>8</v>
+      </c>
+      <c r="J110" s="3">
+        <v>6</v>
+      </c>
+      <c r="K110" s="3">
+        <v>11</v>
+      </c>
+      <c r="L110" s="3">
+        <v>6</v>
+      </c>
+      <c r="M110" s="3">
+        <v>11</v>
+      </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
     </row>
@@ -5066,16 +5096,16 @@
       <c r="E111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="23"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
@@ -5093,16 +5123,36 @@
       <c r="E112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
+      <c r="F112" s="3">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3">
+        <v>10</v>
+      </c>
+      <c r="H112" s="3">
+        <v>11</v>
+      </c>
+      <c r="I112" s="3">
+        <v>8</v>
+      </c>
+      <c r="J112" s="3">
+        <v>6</v>
+      </c>
+      <c r="K112" s="3">
+        <v>11</v>
+      </c>
+      <c r="L112" s="3">
+        <v>6</v>
+      </c>
+      <c r="M112" s="3">
+        <v>11</v>
+      </c>
+      <c r="N112" s="3">
+        <v>9</v>
+      </c>
+      <c r="O112" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="113" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
@@ -5120,16 +5170,16 @@
       <c r="E113" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="5">

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AF0FB-4603-4E6D-BB04-86DC82F046E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CDAF9-2907-4451-90F5-DA52B0D97544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,9 +401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O174"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="O182" sqref="O182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5170,16 +5167,24 @@
       <c r="E113" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
+      <c r="F113" s="2">
+        <v>11</v>
+      </c>
+      <c r="G113" s="2">
+        <v>7</v>
+      </c>
+      <c r="H113" s="2">
+        <v>11</v>
+      </c>
+      <c r="I113" s="2">
+        <v>4</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
@@ -5197,16 +5202,36 @@
       <c r="E114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
+      <c r="F114" s="1">
+        <v>11</v>
+      </c>
+      <c r="G114" s="1">
+        <v>8</v>
+      </c>
+      <c r="H114" s="1">
+        <v>9</v>
+      </c>
+      <c r="I114" s="1">
+        <v>11</v>
+      </c>
+      <c r="J114" s="1">
+        <v>11</v>
+      </c>
+      <c r="K114" s="1">
+        <v>4</v>
+      </c>
+      <c r="L114" s="1">
+        <v>7</v>
+      </c>
+      <c r="M114" s="1">
+        <v>11</v>
+      </c>
+      <c r="N114" s="1">
+        <v>11</v>
+      </c>
+      <c r="O114" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
@@ -5251,12 +5276,24 @@
       <c r="E116" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
+      <c r="F116" s="4">
+        <v>6</v>
+      </c>
+      <c r="G116" s="4">
+        <v>11</v>
+      </c>
+      <c r="H116" s="4">
+        <v>5</v>
+      </c>
+      <c r="I116" s="4">
+        <v>11</v>
+      </c>
+      <c r="J116" s="4">
+        <v>7</v>
+      </c>
+      <c r="K116" s="4">
+        <v>11</v>
+      </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -5278,12 +5315,24 @@
       <c r="E117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="F117" s="3">
+        <v>11</v>
+      </c>
+      <c r="G117" s="3">
+        <v>8</v>
+      </c>
+      <c r="H117" s="3">
+        <v>12</v>
+      </c>
+      <c r="I117" s="3">
+        <v>14</v>
+      </c>
+      <c r="J117" s="3">
+        <v>7</v>
+      </c>
+      <c r="K117" s="3">
+        <v>11</v>
+      </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -5305,12 +5354,24 @@
       <c r="E118" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="F118" s="2">
+        <v>8</v>
+      </c>
+      <c r="G118" s="2">
+        <v>11</v>
+      </c>
+      <c r="H118" s="2">
+        <v>6</v>
+      </c>
+      <c r="I118" s="2">
+        <v>11</v>
+      </c>
+      <c r="J118" s="2">
+        <v>7</v>
+      </c>
+      <c r="K118" s="2">
+        <v>11</v>
+      </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CDAF9-2907-4451-90F5-DA52B0D97544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B37046-7629-4069-B02E-79AE5CE99541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,9 +385,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,6 +398,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="O182" sqref="O182"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,16 +3319,28 @@
       <c r="E65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1">
+        <v>11</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1">
+        <v>11</v>
+      </c>
+      <c r="J65" s="1">
+        <v>7</v>
+      </c>
+      <c r="K65" s="1">
+        <v>11</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -3387,40 +3399,40 @@
       <c r="C67" s="13">
         <v>78</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="18">
         <v>12</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="18">
         <v>6</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67" s="18">
         <v>7</v>
       </c>
-      <c r="I67" s="19">
-        <v>11</v>
-      </c>
-      <c r="J67" s="19">
+      <c r="I67" s="18">
+        <v>11</v>
+      </c>
+      <c r="J67" s="18">
         <v>13</v>
       </c>
-      <c r="K67" s="19">
-        <v>11</v>
-      </c>
-      <c r="L67" s="19">
+      <c r="K67" s="18">
+        <v>11</v>
+      </c>
+      <c r="L67" s="18">
         <v>7</v>
       </c>
-      <c r="M67" s="19">
-        <v>11</v>
-      </c>
-      <c r="N67" s="19">
-        <v>11</v>
-      </c>
-      <c r="O67" s="19">
+      <c r="M67" s="18">
+        <v>11</v>
+      </c>
+      <c r="N67" s="18">
+        <v>11</v>
+      </c>
+      <c r="O67" s="18">
         <v>9</v>
       </c>
     </row>
@@ -4752,7 +4764,7 @@
       <c r="C102" s="13">
         <v>117</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4904,22 +4916,22 @@
       <c r="C106" s="13">
         <v>123</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
@@ -5093,16 +5105,16 @@
       <c r="E111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="23"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
@@ -5249,16 +5261,16 @@
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="23"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
@@ -5348,7 +5360,7 @@
       <c r="C118" s="14">
         <v>135</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -5393,16 +5405,16 @@
       <c r="E119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
@@ -5420,16 +5432,16 @@
       <c r="E120" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
@@ -5447,10 +5459,18 @@
       <c r="E121" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+      <c r="F121" s="3">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3">
+        <v>4</v>
+      </c>
+      <c r="H121" s="3">
+        <v>11</v>
+      </c>
+      <c r="I121" s="3">
+        <v>5</v>
+      </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -5474,12 +5494,24 @@
       <c r="E122" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
+      <c r="F122" s="2">
+        <v>6</v>
+      </c>
+      <c r="G122" s="2">
+        <v>11</v>
+      </c>
+      <c r="H122" s="2">
+        <v>7</v>
+      </c>
+      <c r="I122" s="2">
+        <v>11</v>
+      </c>
+      <c r="J122" s="2">
+        <v>5</v>
+      </c>
+      <c r="K122" s="2">
+        <v>11</v>
+      </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -5846,7 +5878,7 @@
       <c r="C136" s="15">
         <v>156</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -6810,7 +6842,7 @@
       <c r="D171" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F171" s="1"/>

--- a/RESULTADOS T6.xlsx
+++ b/RESULTADOS T6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B37046-7629-4069-B02E-79AE5CE99541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B24170-CAC4-4955-BAF4-7D419903055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O174"/>
     </sheetView>
   </sheetViews>
@@ -5105,16 +5105,28 @@
       <c r="E111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
+      <c r="F111" s="4">
+        <v>5</v>
+      </c>
+      <c r="G111" s="4">
+        <v>11</v>
+      </c>
+      <c r="H111" s="4">
+        <v>9</v>
+      </c>
+      <c r="I111" s="4">
+        <v>11</v>
+      </c>
+      <c r="J111" s="4">
+        <v>10</v>
+      </c>
+      <c r="K111" s="4">
+        <v>12</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
@@ -5261,16 +5273,16 @@
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="23"/>
-      <c r="O115" s="23"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
@@ -5405,16 +5417,36 @@
       <c r="E119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="23"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="23"/>
+      <c r="F119" s="3">
+        <v>9</v>
+      </c>
+      <c r="G119" s="3">
+        <v>11</v>
+      </c>
+      <c r="H119" s="3">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3">
+        <v>11</v>
+      </c>
+      <c r="J119" s="3">
+        <v>11</v>
+      </c>
+      <c r="K119" s="3">
+        <v>7</v>
+      </c>
+      <c r="L119" s="3">
+        <v>11</v>
+      </c>
+      <c r="M119" s="3">
+        <v>6</v>
+      </c>
+      <c r="N119" s="3">
+        <v>14</v>
+      </c>
+      <c r="O119" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
@@ -5432,16 +5464,24 @@
       <c r="E120" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
+      <c r="F120" s="4">
+        <v>10</v>
+      </c>
+      <c r="G120" s="4">
+        <v>12</v>
+      </c>
+      <c r="H120" s="4">
+        <v>3</v>
+      </c>
+      <c r="I120" s="4">
+        <v>11</v>
+      </c>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
@@ -5533,16 +5573,16 @@
       <c r="E123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="23"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
@@ -5560,16 +5600,16 @@
       <c r="E124" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
@@ -5587,10 +5627,18 @@
       <c r="E125" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
+      <c r="F125" s="4">
+        <v>4</v>
+      </c>
+      <c r="G125" s="4">
+        <v>11</v>
+      </c>
+      <c r="H125" s="4">
+        <v>16</v>
+      </c>
+      <c r="I125" s="4">
+        <v>18</v>
+      </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -5614,10 +5662,18 @@
       <c r="E126" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
+      <c r="F126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3">
+        <v>11</v>
+      </c>
+      <c r="H126" s="3">
+        <v>4</v>
+      </c>
+      <c r="I126" s="3">
+        <v>11</v>
+      </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
